--- a/Output/Data.xlsx
+++ b/Output/Data.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Focus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="353">
+  <si>
+    <t>profile_name</t>
+  </si>
+  <si>
+    <t>profile_link</t>
+  </si>
+  <si>
+    <t>profile_interests</t>
   </si>
   <si>
     <t>Total citations</t>
@@ -43,9 +46,45 @@
     <t>Ana Beatriz Lopes de Sousa Jabbour</t>
   </si>
   <si>
+    <t>Christophe Rosenberger</t>
+  </si>
+  <si>
+    <t>Jean-Christophe Avice</t>
+  </si>
+  <si>
+    <t>Paul Honeine</t>
+  </si>
+  <si>
+    <t>Sabri Boubaker</t>
+  </si>
+  <si>
+    <t>Anthony Falluel</t>
+  </si>
+  <si>
+    <t>Pr. Dr. Anis Jarboui</t>
+  </si>
+  <si>
+    <t>Robert LAFITE</t>
+  </si>
+  <si>
+    <t>Cyrille Bertelle</t>
+  </si>
+  <si>
+    <t>Nebojsa S. Davcik</t>
+  </si>
+  <si>
+    <t>Damien Chaney</t>
+  </si>
+  <si>
+    <t>Agnis Stibe</t>
+  </si>
+  <si>
     <t>Christophe Estay</t>
   </si>
   <si>
+    <t>bechar</t>
+  </si>
+  <si>
     <t>Tibor MANDJAK</t>
   </si>
   <si>
@@ -55,9 +94,21 @@
     <t>Sylvaine Castellano</t>
   </si>
   <si>
+    <t>Pascal Hilber</t>
+  </si>
+  <si>
+    <t>Julian Hofmann</t>
+  </si>
+  <si>
+    <t>Nabil Khelil</t>
+  </si>
+  <si>
     <t>BELAID Samy</t>
   </si>
   <si>
+    <t>yamen koubaa</t>
+  </si>
+  <si>
     <t>Octavio Escobar</t>
   </si>
   <si>
@@ -67,44 +118,968 @@
     <t>Sébastien Bourdin</t>
   </si>
   <si>
+    <t>HAMZA Taher</t>
+  </si>
+  <si>
+    <t>Mustafeed Zaman</t>
+  </si>
+  <si>
+    <t>Nabil Ghantous</t>
+  </si>
+  <si>
     <t>Alexandre Renaud</t>
   </si>
   <si>
-    <t>Sustainable Supply Chain Management</t>
-  </si>
-  <si>
-    <t>Entrepreneuriat</t>
-  </si>
-  <si>
-    <t>business marketing</t>
-  </si>
-  <si>
-    <t>International Trade</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>FDI</t>
-  </si>
-  <si>
-    <t>Arctic</t>
-  </si>
-  <si>
-    <t>Economic geography</t>
-  </si>
-  <si>
-    <t>Systèmes d'information</t>
+    <t>Roland Condor</t>
+  </si>
+  <si>
+    <t>Christine BERNADAS</t>
+  </si>
+  <si>
+    <t>Marian Eabrasu</t>
+  </si>
+  <si>
+    <t>Muriel Durand</t>
+  </si>
+  <si>
+    <t>Hossein Rahmany Youshanlouei</t>
+  </si>
+  <si>
+    <t>Jean Pralong</t>
+  </si>
+  <si>
+    <t>Mehmet A. Orhan</t>
+  </si>
+  <si>
+    <t>Fabien Martinez</t>
+  </si>
+  <si>
+    <t>Dr. Khaireddine Mouakhar</t>
+  </si>
+  <si>
+    <t>Ngoc-Sang PHAM</t>
+  </si>
+  <si>
+    <t>Volker Seiler</t>
+  </si>
+  <si>
+    <t>Yoann Bazin</t>
+  </si>
+  <si>
+    <t>Mohammadali Vosooghidizaji</t>
+  </si>
+  <si>
+    <t>Sina Nasiri</t>
+  </si>
+  <si>
+    <t>Mohit Srivastava</t>
+  </si>
+  <si>
+    <t>Lotfi Karoui</t>
+  </si>
+  <si>
+    <t>Josip Marić, PhD</t>
+  </si>
+  <si>
+    <t>Igor Telegeev, Игорь Телегеев, Igor Telegeiev, Igor G. Telegeev, Telegeeff Igor, IG Telegeev, И Телегеев,</t>
+  </si>
+  <si>
+    <t>Sabari Ragavendran Prasanna Venkatesan</t>
+  </si>
+  <si>
+    <t>samah Jradi</t>
+  </si>
+  <si>
+    <t>Isabelle Lacombe</t>
+  </si>
+  <si>
+    <t>Sohier Romain</t>
+  </si>
+  <si>
+    <t>Dorian Bannier</t>
+  </si>
+  <si>
+    <t>Thanh Tam Nguyen-Huu</t>
+  </si>
+  <si>
+    <t>Y. TLICHE</t>
+  </si>
+  <si>
+    <t>David Moroz</t>
+  </si>
+  <si>
+    <t>Yihan Wang</t>
+  </si>
+  <si>
+    <t>Amandine Laré</t>
+  </si>
+  <si>
+    <t>Diana Santistevan</t>
+  </si>
+  <si>
+    <t>Mohamed Hachaichi</t>
+  </si>
+  <si>
+    <t>Nicolas Guedeney</t>
+  </si>
+  <si>
+    <t>Frédéric caumon</t>
+  </si>
+  <si>
+    <t>Arnaud DELANNOY</t>
+  </si>
+  <si>
+    <t>Yonathan Silvain Roten</t>
+  </si>
+  <si>
+    <t>Linlin Jia (贾林林)</t>
+  </si>
+  <si>
+    <t>Vincent Meyer</t>
+  </si>
+  <si>
+    <t>Solène Juteau</t>
+  </si>
+  <si>
+    <t>Maxime Mauduy</t>
+  </si>
+  <si>
+    <t>Aneta Hamza-Orlinska</t>
+  </si>
+  <si>
+    <t>Eléonore Mandel</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=oOmOcaAAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=TpTmMrkAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=TkTj0I4AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=yxk7n1kAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=mNELtuMAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=FsTjmgUAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=TSXET9gAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=TqBwgC4AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=Twj3qDQAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=_TyiCq4AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=oUVvj1MAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=mYcyfrsAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=2T8gU8AAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=g9DEiLEAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=DtnlwoAAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=xglEZBkAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=vNx4Sz8AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=rN_7AkoAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=4ZCoTcUAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=DP_OufkAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=BcTSDckAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=bHUDVG8AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=ht_RNEoAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=IeGHNosAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=KFLFnasAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=KZjz3gwAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=DgrxQGwAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=GVdUNXcAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=J1cWljgAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=4KLCJVgAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=Xf2BqssAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=MH633zgAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=9ZyidVQAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=H6_9aUcAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=YseQa5wAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=cqyUcDoAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=Ql8nMHIAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=JmjHO0EAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=_fjAt0QAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=b_DFLQQAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=g7lQUh8AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=zuUqL2IAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=RfEoWAgAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=xsoh9wcAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=zZG_s_8AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=myltOpUAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=f-nuL0sAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=fz4zTlEAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=7MtUDEwAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=iAjlUXIAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=OUuVpSQAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=8R7Cg9AAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=M4epQ9sAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=4V2lG70AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=YCSIH30AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=Ex4TwC8AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=P3-N38IAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=R80_WFUAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=xaceBrYAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=x-RZHpkAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=D0slPrsAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=vg4TNUkAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=jmQ8r44AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=cnlixw0AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=iJUWw-EAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=XmiJS4AAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=Db4aA10AAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=C6oJtcgAAAAJ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=bMvX7x4AAAAJ</t>
+  </si>
+  <si>
+    <t>['Sustainable Supply Chain Management', 'Circular Economy', 'Digitally Enabled Supply Chains']</t>
+  </si>
+  <si>
+    <t>['Biometrics', 'Security &amp; Privacy']</t>
+  </si>
+  <si>
+    <t>['Nitrogen and Sulfur Use Efficiency', 'Nutrients remobilization']</t>
+  </si>
+  <si>
+    <t>['Machine Learning', 'Signal Processing', 'Advanced Statistics', 'Sensor Networks', 'Hyperspectral image processing']</t>
+  </si>
+  <si>
+    <t>['Corporate Finance', 'Corporate Governance', 'Financial Markets']</t>
+  </si>
+  <si>
+    <t>['Neurodevelopment', 'neurogenesis', 'oxidative stress']</t>
+  </si>
+  <si>
+    <t>['FINANCE et comptabilité']</t>
+  </si>
+  <si>
+    <t>['Sedimentology', 'Estuary and Coastal zone', 'Suspended Matter', 'Marine gravel extraction']</t>
+  </si>
+  <si>
+    <t>['complex systems', 'artificial intelligence', 'swarm intelligence', 'territorial intelligence', 'smart logistics']</t>
+  </si>
+  <si>
+    <t>['marketing', 'econometrics', 'digital strategy', 'data analytics', 'brand management']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Transformation', 'Artificial Intelligence', 'Social Influence', 'Change Management', 'Design']</t>
+  </si>
+  <si>
+    <t>['Entrepreneuriat', 'stratégie et management']</t>
+  </si>
+  <si>
+    <t>['intermodal transport logistique']</t>
+  </si>
+  <si>
+    <t>['business marketing', 'inter-organisational relations', 'business network', 'business paradigm']</t>
+  </si>
+  <si>
+    <t>['International Trade', 'International Business', 'International Entrepreneurship', 'Innovation', 'Emerging Economies']</t>
+  </si>
+  <si>
+    <t>['Management', 'Institutional and competitive dynamics']</t>
+  </si>
+  <si>
+    <t>['Behavioral neurosciences']</t>
+  </si>
+  <si>
+    <t>['entrepreneurship - entrepreneurial failure\xa0…']</t>
+  </si>
+  <si>
+    <t>['Marketing']</t>
+  </si>
+  <si>
+    <t>['Marketing', 'International business', 'Quantitative Analysis']</t>
+  </si>
+  <si>
+    <t>['FDI', 'international trade', 'regional disparities', 'productivity', 'informality']</t>
+  </si>
+  <si>
+    <t>['Arctic', 'shipping', 'risk management', 'port management']</t>
+  </si>
+  <si>
+    <t>['Economic geography', 'Regional Science', 'Cohesion policy', 'circular economy', 'spatial econometrics']</t>
+  </si>
+  <si>
+    <t>['Corporate Finance - Mergers &amp; Acquisitions\xa0…']</t>
+  </si>
+  <si>
+    <t>['Technology Adoption', 'Digitalization', 'Digital Marketing', 'Service', 'Tourism &amp; Hospitality']</t>
+  </si>
+  <si>
+    <t>["Systèmes d'information", 'Management Stratégique', 'RSe']</t>
+  </si>
+  <si>
+    <t>['Entrepreneuriat']</t>
+  </si>
+  <si>
+    <t>['CSR', 'business ethics', 'international affairs']</t>
+  </si>
+  <si>
+    <t>['M&amp;As', 'cross border mergers and acquisitions', 'cultural issues']</t>
+  </si>
+  <si>
+    <t>['AI ', 'Finance', 'Data Science', 'Research methods', 'Financial behaviour', 'Risky and Strategic decisions']</t>
+  </si>
+  <si>
+    <t>['Carrières', 'Ressources Humaines', 'Schémas cognitifs', 'Génération Y']</t>
+  </si>
+  <si>
+    <t>['Organizational Behavior', 'Critical I/O Psychology', 'Non-standard Work', 'Technology ', 'the Workplace', 'Remote Work-Telework-Virtualit']</t>
+  </si>
+  <si>
+    <t>['Sustainability management', 'corporate social responsibility', 'business ethics']</t>
+  </si>
+  <si>
+    <t>['Economic Theory', 'General Equilibrium', 'Financial Economics', 'Macroeconomics']</t>
+  </si>
+  <si>
+    <t>['Rare Earths', 'Commodities', 'Private Banking', 'Wealth Management', 'Empirical Research']</t>
+  </si>
+  <si>
+    <t>['Théories critiques et esthétiques', 'Anthropologie et sociologie des organisations', "Théorie des institutions et processus d'i"]</t>
+  </si>
+  <si>
+    <t>['Supply chain management', 'Optimization']</t>
+  </si>
+  <si>
+    <t>['Supply Chain Management', 'E-Commerce', 'Logistics']</t>
+  </si>
+  <si>
+    <t>['International Business']</t>
+  </si>
+  <si>
+    <t>['Strategic Management', 'Board of Directors', 'Small Business Growth']</t>
+  </si>
+  <si>
+    <t>['Digital technologies', 'Digital transformation', 'Industry 4.0']</t>
+  </si>
+  <si>
+    <t>['Supply chain management', 'Sustainable supply chains', 'Humanitarian Logistics', 'Procurement']</t>
+  </si>
+  <si>
+    <t>['efficiency and productivity analysis', 'estimation of production frontiers', 'DEA', 'SFA']</t>
+  </si>
+  <si>
+    <t>['Contrôle de gestion informatique', 'Information Technology Financial\xa0…']</t>
+  </si>
+  <si>
+    <t>['Marketing digital', 'Sport électronique']</t>
+  </si>
+  <si>
+    <t>['Perception du temps']</t>
+  </si>
+  <si>
+    <t>['International mobility of production factors', 'Sustainable Development']</t>
+  </si>
+  <si>
+    <t>['SCM', 'Data Analysis', 'Operational Research', 'Optimization and Algorithms']</t>
+  </si>
+  <si>
+    <t>['alcoholic beverages and distilled spirits', 'alternative investments', 'culture']</t>
+  </si>
+  <si>
+    <t>['international business', 'economic geography', 'strategy', 'social network', 'innovation']</t>
+  </si>
+  <si>
+    <t>['RSE', 'Agriculture', 'Microfinance', 'Crowdfunding', 'WASH']</t>
+  </si>
+  <si>
+    <t>['global teams']</t>
+  </si>
+  <si>
+    <t>['social metabolism', 'carbon footprint', 'input output analysis', 'behaviour science']</t>
+  </si>
+  <si>
+    <t>['medicinal chemistry', 'organic chemistry', 'vectorisation', 'bioconjugaison', 'chemical biology']</t>
+  </si>
+  <si>
+    <t>['Mathematical Finance']</t>
+  </si>
+  <si>
+    <t>['Marketing', 'luxe', 'marque', 'comportement du consommateur', 'adolescent']</t>
+  </si>
+  <si>
+    <t>['Consumer Behavior', 'Social Psychology', 'Retailing', 'Screen-sharing', 'Phygital Marketing']</t>
+  </si>
+  <si>
+    <t>['Graph machine learning ', 'computational\xa0…', 'Graph neural networks', 'Pre-image', 'Graph kernels', 'Graph edit distances']</t>
+  </si>
+  <si>
+    <t>['Behavior change', 'Cognitive dissonance', 'Social norms', 'School bullying', 'Substance use (alchool and tobacco smoking\xa0…']</t>
+  </si>
+  <si>
+    <t>['Human Resource Management']</t>
+  </si>
+  <si>
+    <t>['Intercultural management - Intercultural\xa0…']</t>
+  </si>
+  <si>
+    <t>9581</t>
+  </si>
+  <si>
+    <t>5575</t>
+  </si>
+  <si>
+    <t>5203</t>
+  </si>
+  <si>
+    <t>3687</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2256</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8428</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2624</t>
+  </si>
+  <si>
+    <t>2154</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>2258</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>766</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +1094,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,16 +1135,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,13 +1443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,268 +1474,2065 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" t="s">
+        <v>343</v>
+      </c>
+      <c r="I9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
-        <v>9581</v>
-      </c>
-      <c r="D2">
-        <v>8428</v>
-      </c>
-      <c r="E2">
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" t="s">
+        <v>332</v>
+      </c>
+      <c r="I13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" t="s">
+        <v>263</v>
+      </c>
+      <c r="I14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" t="s">
+        <v>344</v>
+      </c>
+      <c r="I15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" t="s">
+        <v>332</v>
+      </c>
+      <c r="I16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" t="s">
+        <v>330</v>
+      </c>
+      <c r="H17" t="s">
+        <v>329</v>
+      </c>
+      <c r="I17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" t="s">
+        <v>329</v>
+      </c>
+      <c r="I18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H19" t="s">
+        <v>323</v>
+      </c>
+      <c r="I19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" t="s">
+        <v>335</v>
+      </c>
+      <c r="H21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" t="s">
+        <v>323</v>
+      </c>
+      <c r="I22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" t="s">
+        <v>267</v>
+      </c>
+      <c r="G23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" t="s">
+        <v>267</v>
+      </c>
+      <c r="I23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" t="s">
+        <v>333</v>
+      </c>
+      <c r="I24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G25" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" t="s">
+        <v>329</v>
+      </c>
+      <c r="I25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" t="s">
+        <v>267</v>
+      </c>
+      <c r="H28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" t="s">
+        <v>335</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" t="s">
+        <v>323</v>
+      </c>
+      <c r="H30" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31" t="s">
+        <v>335</v>
+      </c>
+      <c r="G31" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" t="s">
+        <v>334</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>271</v>
+      </c>
+      <c r="H33" t="s">
+        <v>271</v>
+      </c>
+      <c r="I33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>323</v>
+      </c>
+      <c r="H35" t="s">
+        <v>267</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" t="s">
+        <v>306</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>268</v>
+      </c>
+      <c r="H37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" t="s">
+        <v>335</v>
+      </c>
+      <c r="H38" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" t="s">
+        <v>323</v>
+      </c>
+      <c r="H39" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>335</v>
+      </c>
+      <c r="H40" t="s">
+        <v>269</v>
+      </c>
+      <c r="I40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" t="s">
+        <v>323</v>
+      </c>
+      <c r="H41" t="s">
+        <v>335</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="F2">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>107</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>722</v>
-      </c>
-      <c r="D3">
-        <v>610</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>694</v>
-      </c>
-      <c r="D4">
+      <c r="B42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" t="s">
+        <v>312</v>
+      </c>
+      <c r="F42" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" t="s">
+        <v>271</v>
+      </c>
+      <c r="I42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" t="s">
+        <v>313</v>
+      </c>
+      <c r="F43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G43" t="s">
+        <v>271</v>
+      </c>
+      <c r="H43" t="s">
+        <v>272</v>
+      </c>
+      <c r="I43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>323</v>
+      </c>
+      <c r="H44" t="s">
+        <v>335</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+      <c r="G45" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" t="s">
+        <v>335</v>
+      </c>
+      <c r="H46" t="s">
+        <v>269</v>
+      </c>
+      <c r="I46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" t="s">
+        <v>270</v>
+      </c>
+      <c r="H47" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" t="s">
+        <v>317</v>
+      </c>
+      <c r="F48" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" t="s">
+        <v>271</v>
+      </c>
+      <c r="I48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" t="s">
+        <v>269</v>
+      </c>
+      <c r="G49" t="s">
+        <v>269</v>
+      </c>
+      <c r="H49" t="s">
+        <v>270</v>
+      </c>
+      <c r="I49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" t="s">
+        <v>257</v>
+      </c>
+      <c r="E50" t="s">
         <v>265</v>
       </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>588</v>
-      </c>
-      <c r="D5">
-        <v>415</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>548</v>
-      </c>
-      <c r="D6">
-        <v>470</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>486</v>
-      </c>
-      <c r="D7">
+      <c r="F50" t="s">
+        <v>270</v>
+      </c>
+      <c r="G50" t="s">
+        <v>270</v>
+      </c>
+      <c r="H50" t="s">
+        <v>271</v>
+      </c>
+      <c r="I50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51" t="s">
+        <v>270</v>
+      </c>
+      <c r="G51" t="s">
+        <v>270</v>
+      </c>
+      <c r="H51" t="s">
+        <v>271</v>
+      </c>
+      <c r="I51" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>259</v>
+      </c>
+      <c r="E52" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" t="s">
+        <v>271</v>
+      </c>
+      <c r="G52" t="s">
+        <v>271</v>
+      </c>
+      <c r="H52" t="s">
+        <v>272</v>
+      </c>
+      <c r="I52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" t="s">
         <v>320</v>
       </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>443</v>
-      </c>
-      <c r="D8">
-        <v>387</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>412</v>
-      </c>
-      <c r="D9">
-        <v>401</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>402</v>
-      </c>
-      <c r="D10">
-        <v>361</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>17</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>298</v>
-      </c>
-      <c r="D11">
+      <c r="F53" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" t="s">
+        <v>272</v>
+      </c>
+      <c r="I53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" t="s">
+        <v>259</v>
+      </c>
+      <c r="F54" t="s">
+        <v>271</v>
+      </c>
+      <c r="G54" t="s">
+        <v>271</v>
+      </c>
+      <c r="H54" t="s">
+        <v>271</v>
+      </c>
+      <c r="I54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" t="s">
+        <v>270</v>
+      </c>
+      <c r="G55" t="s">
+        <v>270</v>
+      </c>
+      <c r="H55" t="s">
+        <v>272</v>
+      </c>
+      <c r="I55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" t="s">
         <v>261</v>
       </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
+      <c r="E56" t="s">
+        <v>261</v>
+      </c>
+      <c r="F56" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" t="s">
+        <v>270</v>
+      </c>
+      <c r="H56" t="s">
+        <v>272</v>
+      </c>
+      <c r="I56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" t="s">
+        <v>269</v>
+      </c>
+      <c r="G57" t="s">
+        <v>269</v>
+      </c>
+      <c r="H57" t="s">
+        <v>345</v>
+      </c>
+      <c r="I57" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G58" t="s">
+        <v>271</v>
+      </c>
+      <c r="H58" t="s">
+        <v>272</v>
+      </c>
+      <c r="I58" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59" t="s">
+        <v>271</v>
+      </c>
+      <c r="G59" t="s">
+        <v>271</v>
+      </c>
+      <c r="H59" t="s">
+        <v>272</v>
+      </c>
+      <c r="I59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" t="s">
+        <v>271</v>
+      </c>
+      <c r="G60" t="s">
+        <v>271</v>
+      </c>
+      <c r="H60" t="s">
+        <v>272</v>
+      </c>
+      <c r="I60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" t="s">
+        <v>272</v>
+      </c>
+      <c r="G61" t="s">
+        <v>272</v>
+      </c>
+      <c r="H61" t="s">
+        <v>272</v>
+      </c>
+      <c r="I61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" t="s">
+        <v>323</v>
+      </c>
+      <c r="F62" t="s">
+        <v>271</v>
+      </c>
+      <c r="G62" t="s">
+        <v>271</v>
+      </c>
+      <c r="H62" t="s">
+        <v>345</v>
+      </c>
+      <c r="I62" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63" t="s">
+        <v>271</v>
+      </c>
+      <c r="G63" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63" t="s">
+        <v>345</v>
+      </c>
+      <c r="I63" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" t="s">
+        <v>271</v>
+      </c>
+      <c r="G64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64" t="s">
+        <v>345</v>
+      </c>
+      <c r="I64" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65" t="s">
+        <v>272</v>
+      </c>
+      <c r="G65" t="s">
+        <v>272</v>
+      </c>
+      <c r="H65" t="s">
+        <v>345</v>
+      </c>
+      <c r="I65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F66" t="s">
+        <v>272</v>
+      </c>
+      <c r="G66" t="s">
+        <v>272</v>
+      </c>
+      <c r="H66" t="s">
+        <v>345</v>
+      </c>
+      <c r="I66" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" t="s">
+        <v>272</v>
+      </c>
+      <c r="G67" t="s">
+        <v>272</v>
+      </c>
+      <c r="H67" t="s">
+        <v>345</v>
+      </c>
+      <c r="I67" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
+        <v>272</v>
+      </c>
+      <c r="F68" t="s">
+        <v>272</v>
+      </c>
+      <c r="G68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H68" t="s">
+        <v>345</v>
+      </c>
+      <c r="I68" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" t="s">
+        <v>272</v>
+      </c>
+      <c r="H69" t="s">
+        <v>345</v>
+      </c>
+      <c r="I69" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>